--- a/results/1/1_DD_rewards.xlsx
+++ b/results/1/1_DD_rewards.xlsx
@@ -423,41 +423,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-216.58</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-108.58</v>
-      </c>
-      <c r="D3">
-        <v>-108.98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-107.4</v>
-      </c>
-      <c r="D4">
-        <v>-106.87</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-180.32</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-180.32</v>
+      </c>
+      <c r="C3">
+        <v>-2.78</v>
+      </c>
+      <c r="D3">
+        <v>-28.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-6.3</v>
+      </c>
+      <c r="D4">
+        <v>-2.87</v>
       </c>
     </row>
   </sheetData>
@@ -492,41 +492,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-109.3</v>
-      </c>
-      <c r="C2">
-        <v>-120.4</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-164.53</v>
-      </c>
-      <c r="C3">
-        <v>-167.73</v>
-      </c>
-      <c r="D3">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-66.84</v>
-      </c>
-      <c r="C4">
-        <v>-117.49</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-14.87</v>
+      </c>
+      <c r="C2">
+        <v>-8.539999999999999</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>13.06</v>
+      </c>
+      <c r="C3">
+        <v>-14.34</v>
+      </c>
+      <c r="D3">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-10.6</v>
+      </c>
+      <c r="C4">
+        <v>-23.88</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -561,41 +561,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-104.4</v>
-      </c>
-      <c r="D2">
-        <v>-103.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-118.15</v>
-      </c>
-      <c r="D3">
-        <v>-148.68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-108.04</v>
-      </c>
-      <c r="D4">
-        <v>-114.6</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-3.9</v>
+      </c>
+      <c r="D2">
+        <v>-1.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-180.32</v>
+      </c>
+      <c r="C3">
+        <v>-3.88</v>
+      </c>
+      <c r="D3">
+        <v>11.73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-1.61</v>
+      </c>
+      <c r="D4">
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>
@@ -630,41 +630,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-124.79</v>
-      </c>
-      <c r="C2">
-        <v>-99.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>-147.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-116.47</v>
-      </c>
-      <c r="C3">
-        <v>-86.2</v>
-      </c>
-      <c r="D3">
-        <v>-51.73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-142.12</v>
-      </c>
-      <c r="C4">
-        <v>-50.05</v>
-      </c>
-      <c r="D4">
-        <v>-112.86</v>
+        <v>-32.28</v>
+      </c>
+      <c r="C2">
+        <v>-20.78</v>
+      </c>
+      <c r="D2">
+        <v>-7.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2.17</v>
+      </c>
+      <c r="C3">
+        <v>-37.65</v>
+      </c>
+      <c r="D3">
+        <v>-25.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-6.56</v>
+      </c>
+      <c r="C4">
+        <v>-1.16</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -699,41 +699,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-134.42</v>
-      </c>
-      <c r="C2">
-        <v>-47.69</v>
-      </c>
-      <c r="D2">
-        <v>-94.38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-64.8</v>
-      </c>
-      <c r="C3">
-        <v>-97.75</v>
-      </c>
-      <c r="D3">
-        <v>-77.13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-119.53</v>
-      </c>
-      <c r="C4">
-        <v>-70.17</v>
-      </c>
-      <c r="D4">
-        <v>-77.92</v>
+        <v>-26.65</v>
+      </c>
+      <c r="C2">
+        <v>-1.48</v>
+      </c>
+      <c r="D2">
+        <v>-25.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>13.58</v>
+      </c>
+      <c r="C3">
+        <v>-21.74</v>
+      </c>
+      <c r="D3">
+        <v>-49.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-44.09</v>
+      </c>
+      <c r="C4">
+        <v>-63.5</v>
+      </c>
+      <c r="D4">
+        <v>-41.06</v>
       </c>
     </row>
   </sheetData>
@@ -768,41 +768,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-112.42</v>
-      </c>
-      <c r="C2">
-        <v>-71.52</v>
-      </c>
-      <c r="D2">
-        <v>-63.42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-108.84</v>
-      </c>
-      <c r="C3">
-        <v>-67.42</v>
-      </c>
-      <c r="D3">
-        <v>-64.51000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-112.74</v>
-      </c>
-      <c r="C4">
-        <v>-45.42</v>
-      </c>
-      <c r="D4">
-        <v>-31.4</v>
+        <v>8.41</v>
+      </c>
+      <c r="C2">
+        <v>-92.18000000000001</v>
+      </c>
+      <c r="D2">
+        <v>-41.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-66.08</v>
+      </c>
+      <c r="C3">
+        <v>-8.94</v>
+      </c>
+      <c r="D3">
+        <v>-67.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-63.24</v>
+      </c>
+      <c r="C4">
+        <v>-25.88</v>
+      </c>
+      <c r="D4">
+        <v>-7.22</v>
       </c>
     </row>
   </sheetData>
@@ -837,41 +837,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-75.16</v>
-      </c>
-      <c r="C2">
-        <v>-125.66</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-70.01000000000001</v>
-      </c>
-      <c r="C3">
-        <v>-81.75</v>
-      </c>
-      <c r="D3">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-59.58</v>
-      </c>
-      <c r="C4">
-        <v>-52.85</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-21.26</v>
+      </c>
+      <c r="C2">
+        <v>-3.1</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-5.55</v>
+      </c>
+      <c r="C3">
+        <v>-32.02</v>
+      </c>
+      <c r="D3">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>14.05</v>
+      </c>
+      <c r="C4">
+        <v>5.85</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -906,41 +906,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-119.73</v>
-      </c>
-      <c r="D2">
-        <v>-84.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-53.74</v>
-      </c>
-      <c r="D3">
-        <v>-80.31999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-41.78</v>
-      </c>
-      <c r="D4">
-        <v>-45.78</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>10.86</v>
+      </c>
+      <c r="D2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-180.32</v>
+      </c>
+      <c r="C3">
+        <v>-12.24</v>
+      </c>
+      <c r="D3">
+        <v>-14.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-16.02</v>
+      </c>
+      <c r="D4">
+        <v>-2.13</v>
       </c>
     </row>
   </sheetData>
@@ -975,41 +975,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-87.64</v>
-      </c>
-      <c r="C2">
-        <v>-106.77</v>
-      </c>
-      <c r="D2">
-        <v>-79.86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-118.5</v>
-      </c>
-      <c r="C3">
-        <v>-137.34</v>
-      </c>
-      <c r="D3">
-        <v>-73.31999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-99.88</v>
-      </c>
-      <c r="C4">
-        <v>-71.25</v>
-      </c>
-      <c r="D4">
-        <v>-47.78</v>
+        <v>-72.06</v>
+      </c>
+      <c r="C2">
+        <v>-23.63</v>
+      </c>
+      <c r="D2">
+        <v>-10.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-21.3</v>
+      </c>
+      <c r="C3">
+        <v>-76.47</v>
+      </c>
+      <c r="D3">
+        <v>-77.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>10.78</v>
+      </c>
+      <c r="C4">
+        <v>-34.6</v>
+      </c>
+      <c r="D4">
+        <v>-50.35</v>
       </c>
     </row>
   </sheetData>
@@ -1044,41 +1044,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-37.5</v>
-      </c>
-      <c r="C2">
-        <v>-33.71</v>
-      </c>
-      <c r="D2">
-        <v>-21.72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-38.99</v>
-      </c>
-      <c r="C3">
-        <v>-35.81</v>
-      </c>
-      <c r="D3">
-        <v>-11.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-65.22</v>
-      </c>
-      <c r="C4">
-        <v>-85.45999999999999</v>
-      </c>
-      <c r="D4">
-        <v>-21.14</v>
+        <v>-4.25</v>
+      </c>
+      <c r="C2">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="D2">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6.86</v>
+      </c>
+      <c r="C3">
+        <v>5.7</v>
+      </c>
+      <c r="D3">
+        <v>-6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3.6</v>
+      </c>
+      <c r="C4">
+        <v>6.78</v>
+      </c>
+      <c r="D4">
+        <v>14.79</v>
       </c>
     </row>
   </sheetData>
@@ -1113,41 +1113,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-38.36</v>
-      </c>
-      <c r="C2">
-        <v>-34.18</v>
-      </c>
-      <c r="D2">
-        <v>-56.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-56.42</v>
-      </c>
-      <c r="C3">
-        <v>-87.59999999999999</v>
-      </c>
-      <c r="D3">
-        <v>-47.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-71.5</v>
-      </c>
-      <c r="C4">
-        <v>-11.54</v>
-      </c>
-      <c r="D4">
-        <v>-25.21</v>
+        <v>-19.65</v>
+      </c>
+      <c r="C2">
+        <v>-12.38</v>
+      </c>
+      <c r="D2">
+        <v>-10.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-58.17</v>
+      </c>
+      <c r="C3">
+        <v>-27.19</v>
+      </c>
+      <c r="D3">
+        <v>-16.91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-44.82</v>
+      </c>
+      <c r="C4">
+        <v>-26.74</v>
+      </c>
+      <c r="D4">
+        <v>16.38</v>
       </c>
     </row>
   </sheetData>
@@ -1182,41 +1182,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-216.58</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-107.69</v>
-      </c>
-      <c r="C3">
-        <v>-163.38</v>
-      </c>
-      <c r="D3">
-        <v>-148.38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-110.02</v>
-      </c>
-      <c r="C4">
-        <v>-160.8</v>
-      </c>
-      <c r="D4">
-        <v>-86.19</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-180.32</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-13.98</v>
+      </c>
+      <c r="C3">
+        <v>-8.9</v>
+      </c>
+      <c r="D3">
+        <v>-3.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-12.81</v>
+      </c>
+      <c r="C4">
+        <v>-4.23</v>
+      </c>
+      <c r="D4">
+        <v>-23.5</v>
       </c>
     </row>
   </sheetData>
@@ -1251,41 +1251,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-66.09</v>
-      </c>
-      <c r="C2">
-        <v>-91.31999999999999</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-31.01</v>
-      </c>
-      <c r="C3">
-        <v>-33.1</v>
-      </c>
-      <c r="D3">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-125.22</v>
-      </c>
-      <c r="C4">
-        <v>-8.27</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-10.78</v>
+      </c>
+      <c r="C2">
+        <v>-14.35</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-7.96</v>
+      </c>
+      <c r="C3">
+        <v>0.45</v>
+      </c>
+      <c r="D3">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-23.39</v>
+      </c>
+      <c r="C4">
+        <v>16.78</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1320,41 +1320,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-39.51</v>
-      </c>
-      <c r="D2">
-        <v>-51.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-59.7</v>
-      </c>
-      <c r="D3">
-        <v>-57.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-216.58</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-2.53</v>
+      </c>
+      <c r="D2">
+        <v>-4.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-180.32</v>
+      </c>
+      <c r="C3">
+        <v>-5.62</v>
+      </c>
+      <c r="D3">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-180.32</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1389,41 +1389,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-65.53</v>
-      </c>
-      <c r="C2">
-        <v>-105.78</v>
-      </c>
-      <c r="D2">
-        <v>-73.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-36.22</v>
-      </c>
-      <c r="C3">
-        <v>-109.06</v>
-      </c>
-      <c r="D3">
-        <v>-61.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-216.58</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-3.21</v>
+      </c>
+      <c r="C2">
+        <v>4.02</v>
+      </c>
+      <c r="D2">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-3.54</v>
+      </c>
+      <c r="C3">
+        <v>2.83</v>
+      </c>
+      <c r="D3">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-180.32</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1458,41 +1458,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-102.77</v>
-      </c>
-      <c r="C2">
-        <v>-52.62</v>
-      </c>
-      <c r="D2">
-        <v>-12.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-123.08</v>
-      </c>
-      <c r="C3">
-        <v>-46.57</v>
-      </c>
-      <c r="D3">
-        <v>-36.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-216.58</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>2.36</v>
+      </c>
+      <c r="C2">
+        <v>11.78</v>
+      </c>
+      <c r="D2">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.59</v>
+      </c>
+      <c r="C3">
+        <v>-6.62</v>
+      </c>
+      <c r="D3">
+        <v>16.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-180.32</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1527,41 +1527,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-59.73</v>
-      </c>
-      <c r="C2">
-        <v>-44.32</v>
-      </c>
-      <c r="D2">
-        <v>-51.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-63.36</v>
-      </c>
-      <c r="C3">
-        <v>-16.99</v>
-      </c>
-      <c r="D3">
-        <v>-20.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-216.58</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>9.380000000000001</v>
+      </c>
+      <c r="C2">
+        <v>11.42</v>
+      </c>
+      <c r="D2">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3.29</v>
+      </c>
+      <c r="C3">
+        <v>7.99</v>
+      </c>
+      <c r="D3">
+        <v>17.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-180.32</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1596,41 +1596,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-216.58</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-216.58</v>
-      </c>
-      <c r="D3">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-216.58</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-180.32</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-180.32</v>
+      </c>
+      <c r="C3">
+        <v>-180.32</v>
+      </c>
+      <c r="D3">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-180.32</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1665,41 +1665,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-216.58</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-143.46</v>
-      </c>
-      <c r="C3">
-        <v>-141.49</v>
-      </c>
-      <c r="D3">
-        <v>-143.66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-142.47</v>
-      </c>
-      <c r="C4">
-        <v>-125.81</v>
-      </c>
-      <c r="D4">
-        <v>-82.73</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-180.32</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-1.26</v>
+      </c>
+      <c r="C3">
+        <v>-24.31</v>
+      </c>
+      <c r="D3">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-6.47</v>
+      </c>
+      <c r="C4">
+        <v>-5.59</v>
+      </c>
+      <c r="D4">
+        <v>-0.23</v>
       </c>
     </row>
   </sheetData>
@@ -1734,41 +1734,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-216.58</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-115.54</v>
-      </c>
-      <c r="C3">
-        <v>-167.9</v>
-      </c>
-      <c r="D3">
-        <v>-104.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-137.81</v>
-      </c>
-      <c r="C4">
-        <v>-88.02</v>
-      </c>
-      <c r="D4">
-        <v>-106.66</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-180.32</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-19.03</v>
+      </c>
+      <c r="C3">
+        <v>-15.44</v>
+      </c>
+      <c r="D3">
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-9.69</v>
+      </c>
+      <c r="C4">
+        <v>-1.29</v>
+      </c>
+      <c r="D4">
+        <v>-3.3</v>
       </c>
     </row>
   </sheetData>
@@ -1803,41 +1803,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-216.58</v>
-      </c>
-      <c r="D2">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-106.01</v>
-      </c>
-      <c r="C3">
-        <v>-123.96</v>
-      </c>
-      <c r="D3">
-        <v>-216.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-106.34</v>
-      </c>
-      <c r="C4">
-        <v>-124.5</v>
-      </c>
-      <c r="D4">
-        <v>-216.58</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-180.32</v>
+      </c>
+      <c r="D2">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-4.74</v>
+      </c>
+      <c r="C3">
+        <v>-21.53</v>
+      </c>
+      <c r="D3">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-10.36</v>
+      </c>
+      <c r="C4">
+        <v>10.92</v>
+      </c>
+      <c r="D4">
+        <v>-180.32</v>
       </c>
     </row>
   </sheetData>
@@ -1872,41 +1872,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-216.58</v>
-      </c>
-      <c r="C2">
-        <v>-107.62</v>
-      </c>
-      <c r="D2">
-        <v>-107.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-149.87</v>
-      </c>
-      <c r="D3">
-        <v>-165.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-216.58</v>
-      </c>
-      <c r="C4">
-        <v>-144.33</v>
-      </c>
-      <c r="D4">
-        <v>-154.92</v>
+        <v>-180.32</v>
+      </c>
+      <c r="C2">
+        <v>-19.69</v>
+      </c>
+      <c r="D2">
+        <v>-1.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-180.32</v>
+      </c>
+      <c r="C3">
+        <v>-1.5</v>
+      </c>
+      <c r="D3">
+        <v>-15.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-180.32</v>
+      </c>
+      <c r="C4">
+        <v>-13.19</v>
+      </c>
+      <c r="D4">
+        <v>-3.64</v>
       </c>
     </row>
   </sheetData>
@@ -1941,41 +1941,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-126.4</v>
-      </c>
-      <c r="C2">
-        <v>-163.8</v>
-      </c>
-      <c r="D2">
-        <v>-145.39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-114.88</v>
-      </c>
-      <c r="C3">
-        <v>-137.6</v>
-      </c>
-      <c r="D3">
-        <v>-102.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-152.58</v>
-      </c>
-      <c r="C4">
-        <v>-82.15000000000001</v>
-      </c>
-      <c r="D4">
-        <v>-137.75</v>
+        <v>-32</v>
+      </c>
+      <c r="C2">
+        <v>-39.91</v>
+      </c>
+      <c r="D2">
+        <v>-64.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-82.69</v>
+      </c>
+      <c r="C3">
+        <v>-26.32</v>
+      </c>
+      <c r="D3">
+        <v>-19.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>11.12</v>
+      </c>
+      <c r="C4">
+        <v>-75.34999999999999</v>
+      </c>
+      <c r="D4">
+        <v>-15.03</v>
       </c>
     </row>
   </sheetData>
@@ -2010,41 +2010,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-163.21</v>
-      </c>
-      <c r="C2">
-        <v>-140.57</v>
-      </c>
-      <c r="D2">
-        <v>-78.18000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-216.58</v>
-      </c>
-      <c r="C3">
-        <v>-97.41</v>
-      </c>
-      <c r="D3">
-        <v>-102.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-169.28</v>
-      </c>
-      <c r="C4">
-        <v>-123.98</v>
-      </c>
-      <c r="D4">
-        <v>-60.1</v>
+        <v>-49.37</v>
+      </c>
+      <c r="C2">
+        <v>-60.38</v>
+      </c>
+      <c r="D2">
+        <v>-83.01000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10.22</v>
+      </c>
+      <c r="C3">
+        <v>-136.9</v>
+      </c>
+      <c r="D3">
+        <v>-180.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-19.36</v>
+      </c>
+      <c r="C4">
+        <v>-94.03</v>
+      </c>
+      <c r="D4">
+        <v>-94.88</v>
       </c>
     </row>
   </sheetData>
@@ -2079,41 +2079,41 @@
         <v>-1</v>
       </c>
       <c r="B2">
-        <v>-85.02</v>
-      </c>
-      <c r="C2">
-        <v>-116.54</v>
-      </c>
-      <c r="D2">
-        <v>-142.03</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>-212.3</v>
-      </c>
-      <c r="C3">
-        <v>-106.84</v>
-      </c>
-      <c r="D3">
-        <v>-116.62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-80.45999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-82.98</v>
-      </c>
-      <c r="D4">
-        <v>-69.68000000000001</v>
+        <v>-138.71</v>
+      </c>
+      <c r="C2">
+        <v>-103.16</v>
+      </c>
+      <c r="D2">
+        <v>-151.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-32.11</v>
+      </c>
+      <c r="C3">
+        <v>-32.43</v>
+      </c>
+      <c r="D3">
+        <v>-95.45999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-51.63</v>
+      </c>
+      <c r="C4">
+        <v>-64.23</v>
+      </c>
+      <c r="D4">
+        <v>13.54</v>
       </c>
     </row>
   </sheetData>
